--- a/wide/synthetic_dataset_7.xlsx
+++ b/wide/synthetic_dataset_7.xlsx
@@ -70,12 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -372,254 +369,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:13">
       <c r="A1" s="1">
-        <v>45894</v>
+        <v>45932</v>
       </c>
       <c r="B1" s="1">
-        <v>45901</v>
+        <v>45939</v>
       </c>
       <c r="C1" s="1">
-        <v>45908</v>
-      </c>
-      <c r="D1" s="2"/>
+        <v>45946</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45953</v>
+      </c>
       <c r="E1" s="1">
-        <v>45922</v>
+        <v>45960</v>
       </c>
       <c r="F1" s="1">
-        <v>45929</v>
+        <v>45967</v>
       </c>
       <c r="G1" s="1">
-        <v>45936</v>
+        <v>45974</v>
       </c>
       <c r="H1" s="1">
-        <v>45943</v>
-      </c>
-      <c r="I1" s="2"/>
+        <v>45981</v>
+      </c>
+      <c r="I1" s="1">
+        <v>45988</v>
+      </c>
       <c r="J1" s="1">
-        <v>45957</v>
+        <v>45995</v>
       </c>
       <c r="K1" s="1">
-        <v>45964</v>
+        <v>46002</v>
       </c>
       <c r="L1" s="1">
-        <v>45971</v>
-      </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1">
-        <v>45985</v>
-      </c>
-      <c r="O1" s="1">
-        <v>45992</v>
-      </c>
-      <c r="P1" s="1">
-        <v>45999</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>46006</v>
-      </c>
-      <c r="R1" s="1">
-        <v>46013</v>
+        <v>46009</v>
+      </c>
+      <c r="M1" s="1">
+        <v>46016</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:13">
       <c r="A2">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="B2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C2">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="D2">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="E2">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="F2">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="G2">
+        <v>157</v>
+      </c>
+      <c r="H2">
+        <v>181</v>
+      </c>
+      <c r="I2">
+        <v>150</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>196</v>
+      </c>
+      <c r="L2">
         <v>147</v>
       </c>
-      <c r="H2">
+      <c r="M2">
         <v>200</v>
       </c>
-      <c r="I2">
-        <v>181</v>
-      </c>
-      <c r="J2">
-        <v>172</v>
-      </c>
-      <c r="K2">
-        <v>91</v>
-      </c>
-      <c r="L2">
-        <v>78</v>
-      </c>
-      <c r="M2">
-        <v>126</v>
-      </c>
-      <c r="N2">
-        <v>174</v>
-      </c>
-      <c r="O2">
-        <v>160</v>
-      </c>
-      <c r="Q2">
-        <v>138</v>
-      </c>
-      <c r="R2">
-        <v>97</v>
-      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:13">
       <c r="A3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
       <c r="G3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>169</v>
+      </c>
+      <c r="B4">
+        <v>122</v>
+      </c>
+      <c r="C4">
+        <v>115</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>69</v>
+      </c>
+      <c r="F4">
+        <v>69</v>
+      </c>
+      <c r="G4">
+        <v>121</v>
+      </c>
+      <c r="H4">
+        <v>71</v>
+      </c>
+      <c r="I4">
+        <v>156</v>
+      </c>
+      <c r="J4">
+        <v>108</v>
+      </c>
+      <c r="K4">
+        <v>180</v>
+      </c>
+      <c r="L4">
+        <v>72</v>
+      </c>
+      <c r="M4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>9</v>
       </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
-      <c r="L3">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>9</v>
       </c>
-      <c r="M3">
-        <v>8</v>
-      </c>
-      <c r="N3">
-        <v>8</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>7</v>
-      </c>
-      <c r="R3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4">
-        <v>87</v>
-      </c>
-      <c r="B4">
-        <v>93</v>
-      </c>
-      <c r="C4">
-        <v>200</v>
-      </c>
-      <c r="F4">
-        <v>79</v>
-      </c>
-      <c r="H4">
-        <v>131</v>
-      </c>
-      <c r="I4">
-        <v>144</v>
-      </c>
-      <c r="K4">
-        <v>182</v>
-      </c>
-      <c r="L4">
-        <v>148</v>
-      </c>
-      <c r="M4">
-        <v>56</v>
-      </c>
-      <c r="N4">
-        <v>145</v>
-      </c>
-      <c r="O4">
-        <v>159</v>
-      </c>
-      <c r="P4">
-        <v>80</v>
-      </c>
-      <c r="Q4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
+      <c r="M5">
         <v>3</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>6</v>
-      </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>10</v>
-      </c>
-      <c r="Q5">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
